--- a/Excel Policies/QLearning Policy.xlsx
+++ b/Excel Policies/QLearning Policy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/CU Boulder Classes/DMU/FINAL PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/GitHub/blackjackAI/Excel Policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8EDEB6-7049-5444-A7A3-108967BF8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5005C-9F88-D84A-805B-BCAD0726A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="1460" windowWidth="14340" windowHeight="14000" xr2:uid="{68A7BB8D-7DC8-BC4B-A18B-CCE0249F3626}"/>
+    <workbookView xWindow="10500" yWindow="1020" windowWidth="14340" windowHeight="14000" xr2:uid="{68A7BB8D-7DC8-BC4B-A18B-CCE0249F3626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -180,14 +180,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36030BC7-10D2-394F-945E-6E97264BDAFA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,34 +542,34 @@
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -603,7 +606,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
@@ -641,7 +644,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>20</v>
       </c>
@@ -677,7 +680,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>19</v>
       </c>
@@ -713,7 +716,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>18</v>
       </c>
@@ -749,12 +752,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -775,197 +778,197 @@
         <v>10</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>11</v>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>11</v>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -1037,7 +1040,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -1073,7 +1076,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1">
         <v>8</v>
       </c>
@@ -1109,7 +1112,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1">
         <v>7</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
@@ -1145,43 +1148,43 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -1217,7 +1220,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1253,7 +1256,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1292,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -1321,119 +1324,119 @@
         <v>10</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
@@ -1469,7 +1472,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1508,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1519,10 +1522,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
@@ -1541,7 +1544,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
